--- a/analysis/rawData/data.xlsx
+++ b/analysis/rawData/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5141e6b156d356ea/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5141e6b156d356ea/Desktop/replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DB114E441178AC67DF4D74E54FA3A693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13C8859F-E7F1-403C-A71C-D1BFE031E5A3}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4DB114E441178AC67DF4D74E54FA3A693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0BF90E1-529C-46D9-8C29-C8204A75B208}"/>
   <bookViews>
-    <workbookView xWindow="-28425" yWindow="5175" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3000" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="351">
   <si>
     <t>No.</t>
   </si>
@@ -1075,6 +1075,9 @@
   </si>
   <si>
     <t>opponent modeling,coalition formation and dynamic multi-party negotiation are the subject of our current research</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1127,6 +1130,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1394,11 +1401,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="57.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2342,7 +2352,7 @@
         <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L15" t="s">
         <v>128</v>
@@ -2602,7 +2612,7 @@
         <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L19" t="s">
         <v>153</v>
@@ -2797,7 +2807,7 @@
         <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L22" t="s">
         <v>172</v>
@@ -3252,7 +3262,7 @@
         <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L29" t="s">
         <v>205</v>
@@ -3642,7 +3652,7 @@
         <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s">
         <v>243</v>
@@ -3902,7 +3912,7 @@
         <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s">
         <v>262</v>
@@ -3967,7 +3977,7 @@
         <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s">
         <v>269</v>
@@ -4032,7 +4042,7 @@
         <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s">
         <v>274</v>
@@ -4227,7 +4237,7 @@
         <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s">
         <v>243</v>
@@ -4487,7 +4497,7 @@
         <v>26</v>
       </c>
       <c r="K48" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s">
         <v>313</v>
@@ -4552,7 +4562,7 @@
         <v>26</v>
       </c>
       <c r="K49" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s">
         <v>318</v>
@@ -4812,7 +4822,7 @@
         <v>26</v>
       </c>
       <c r="K53" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s">
         <v>341</v>
